--- a/1712878/LIBRARY/FILE/Sach.xlsx
+++ b/1712878/LIBRARY/FILE/Sach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\LIBRARY\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028920E-A395-40BB-87D0-9EEF9C5D62F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC931ED0-1600-491F-8DBE-20834EE47820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{AFC3919C-8636-4FDE-954A-6DF46CC9423D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>MA SACH</t>
   </si>
@@ -51,109 +51,346 @@
     <t xml:space="preserve">ISBN </t>
   </si>
   <si>
-    <t>Nhap Mon Lap Trinh</t>
-  </si>
-  <si>
-    <t>Ki Thuat Lap Trinh</t>
-  </si>
-  <si>
-    <t>KHTN001</t>
-  </si>
-  <si>
-    <t>KHTN002</t>
-  </si>
-  <si>
-    <t>KHTN003</t>
-  </si>
-  <si>
-    <t>KHTN004</t>
-  </si>
-  <si>
-    <t>KHTN005</t>
-  </si>
-  <si>
-    <t>KHTN006</t>
-  </si>
-  <si>
-    <t>KHTN007</t>
-  </si>
-  <si>
-    <t>KHTN008</t>
-  </si>
-  <si>
-    <t>KHTN009</t>
-  </si>
-  <si>
-    <t>KHTN010</t>
-  </si>
-  <si>
     <t>Ki Thuat Lap Trinh C</t>
   </si>
   <si>
-    <t>The mind map book</t>
-  </si>
-  <si>
-    <t>How to read a book</t>
-  </si>
-  <si>
-    <t>the speed reading book</t>
-  </si>
-  <si>
-    <t>Therese Naber</t>
-  </si>
-  <si>
     <t>Tran Dan Thu</t>
   </si>
   <si>
-    <t>Tran Minh Triet</t>
-  </si>
-  <si>
-    <t>Gregory J. Manin.</t>
-  </si>
-  <si>
-    <t>ISBN0838467857 </t>
-  </si>
-  <si>
     <t>Khoa hoc ki thuat</t>
   </si>
   <si>
-    <t>O'Reilly Media</t>
-  </si>
-  <si>
-    <t>Michael B. White</t>
-  </si>
-  <si>
-    <t> Aristides S. Bouras</t>
-  </si>
-  <si>
-    <t>Dinh Ba Tien</t>
-  </si>
-  <si>
     <t>Pham Van At</t>
   </si>
   <si>
-    <t>Tran Thanh Phuong</t>
-  </si>
-  <si>
-    <t>English knowhow</t>
-  </si>
-  <si>
-    <t>Go for it</t>
-  </si>
-  <si>
-    <t>Nhap Mon CNTT</t>
-  </si>
-  <si>
     <t>PP Lap Trinh HDT</t>
   </si>
   <si>
-    <t>ISBN3455467857 </t>
-  </si>
-  <si>
-    <t>ISBN4535443254</t>
-  </si>
-  <si>
-    <t>ISBN0435455347 </t>
+    <t>Nguyen Huu Anh</t>
+  </si>
+  <si>
+    <t>Chau Van Tao</t>
+  </si>
+  <si>
+    <t>DHQG Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Lao dong xa hoi</t>
+  </si>
+  <si>
+    <t>Toan roi rac</t>
+  </si>
+  <si>
+    <t>Bai tap co hoc va NDLH</t>
+  </si>
+  <si>
+    <t>Co nhiet dai cuong</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Van</t>
+  </si>
+  <si>
+    <t>DL Cach Mang cua DCSVN</t>
+  </si>
+  <si>
+    <t>Do Quang Dung</t>
+  </si>
+  <si>
+    <t>CTQG Su That</t>
+  </si>
+  <si>
+    <t>Tu tuong HCM</t>
+  </si>
+  <si>
+    <t>Pham Thi Thinh</t>
+  </si>
+  <si>
+    <t>Bai tap KTLT</t>
+  </si>
+  <si>
+    <t>N.T.T Minh Khang</t>
+  </si>
+  <si>
+    <t>Dai so tuyen tinh</t>
+  </si>
+  <si>
+    <t>Bui Xuan Hai</t>
+  </si>
+  <si>
+    <t>CS tri tue nhan tao</t>
+  </si>
+  <si>
+    <t>Le Hoai Bac</t>
+  </si>
+  <si>
+    <t>GTVT Ha Noi</t>
+  </si>
+  <si>
+    <t>Co so du lieu</t>
+  </si>
+  <si>
+    <t>D.T Thuy Bich</t>
+  </si>
+  <si>
+    <t>Mang may tinh</t>
+  </si>
+  <si>
+    <t>Mai Van Cuong</t>
+  </si>
+  <si>
+    <t>Xac suat thong ke</t>
+  </si>
+  <si>
+    <t>Pham Hoang Quan</t>
+  </si>
+  <si>
+    <t>GD Viet Nam</t>
+  </si>
+  <si>
+    <t>Ky thuat lap trinh</t>
+  </si>
+  <si>
+    <t>Nhap mon lap trinh</t>
+  </si>
+  <si>
+    <t>Cua tiem hanh phuc</t>
+  </si>
+  <si>
+    <t>Le Di</t>
+  </si>
+  <si>
+    <t>Thanh nien</t>
+  </si>
+  <si>
+    <t>Tu ton den vi dai</t>
+  </si>
+  <si>
+    <t>NXB Tre</t>
+  </si>
+  <si>
+    <t>T.T Ngan Tuyen</t>
+  </si>
+  <si>
+    <t>Mastering Java</t>
+  </si>
+  <si>
+    <t>Michael B. White </t>
+  </si>
+  <si>
+    <t>Independently</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>Saurabh Chhajed</t>
+  </si>
+  <si>
+    <t>Learning ELK Stack</t>
+  </si>
+  <si>
+    <t>Mastering Elastic Stack</t>
+  </si>
+  <si>
+    <t>Yuvraj Gupta</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Jane Eyre </t>
+  </si>
+  <si>
+    <t>Harry Potter series</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>JRR Tolkien</t>
+  </si>
+  <si>
+    <t>Charlotte Bronte</t>
+  </si>
+  <si>
+    <t>JK Rowling</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Wuthering Heights</t>
+  </si>
+  <si>
+    <t>Emily Bronte</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>Great Expectations</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Little Women</t>
+  </si>
+  <si>
+    <t>Louisa M. Alcott</t>
+  </si>
+  <si>
+    <t>Tess of the D'Urbervilles</t>
+  </si>
+  <si>
+    <t>Thomas Hardy</t>
+  </si>
+  <si>
+    <t>The Hobbit </t>
+  </si>
+  <si>
+    <t>Rebecca </t>
+  </si>
+  <si>
+    <t>Catch 22 </t>
+  </si>
+  <si>
+    <t>Joseph Heller</t>
+  </si>
+  <si>
+    <t>Daphne Du</t>
+  </si>
+  <si>
+    <t>Vat Ly DC 2</t>
+  </si>
+  <si>
+    <t>Duong Hieu Dau</t>
+  </si>
+  <si>
+    <t>CTDL va Giai thuat</t>
+  </si>
+  <si>
+    <t>Tran Hanh Nhi</t>
+  </si>
+  <si>
+    <t>The MIT Press</t>
+  </si>
+  <si>
+    <t>Penguin Random</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>Cengage Learning</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>OOP001</t>
+  </si>
+  <si>
+    <t>OOP002</t>
+  </si>
+  <si>
+    <t>OOP003</t>
+  </si>
+  <si>
+    <t>OOP004</t>
+  </si>
+  <si>
+    <t>OOP005</t>
+  </si>
+  <si>
+    <t>OOP006</t>
+  </si>
+  <si>
+    <t>OOP007</t>
+  </si>
+  <si>
+    <t>OOP008</t>
+  </si>
+  <si>
+    <t>OOP009</t>
+  </si>
+  <si>
+    <t>OOP010</t>
+  </si>
+  <si>
+    <t>OOP011</t>
+  </si>
+  <si>
+    <t>OOP012</t>
+  </si>
+  <si>
+    <t>OOP013</t>
+  </si>
+  <si>
+    <t>OOP014</t>
+  </si>
+  <si>
+    <t>OOP015</t>
+  </si>
+  <si>
+    <t>OOP016</t>
+  </si>
+  <si>
+    <t>OOP017</t>
+  </si>
+  <si>
+    <t>OOP018</t>
+  </si>
+  <si>
+    <t>OOP019</t>
+  </si>
+  <si>
+    <t>OOP020</t>
+  </si>
+  <si>
+    <t>OOP021</t>
+  </si>
+  <si>
+    <t>OOP022</t>
+  </si>
+  <si>
+    <t>OOP023</t>
+  </si>
+  <si>
+    <t>OOP024</t>
+  </si>
+  <si>
+    <t>OOP025</t>
+  </si>
+  <si>
+    <t>OOP026</t>
+  </si>
+  <si>
+    <t>OOP027</t>
+  </si>
+  <si>
+    <t>OOP028</t>
+  </si>
+  <si>
+    <t>OOP029</t>
+  </si>
+  <si>
+    <t>OOP030</t>
+  </si>
+  <si>
+    <t>OOP031</t>
+  </si>
+  <si>
+    <t>OOP032</t>
+  </si>
+  <si>
+    <t>OOP033</t>
+  </si>
+  <si>
+    <t>OOP034</t>
   </si>
 </sst>
 </file>
@@ -189,8 +426,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,224 +749,704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4D5AF4-831C-4455-B5E0-C09AD3CAD713}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22000</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" s="2">
+        <v>22000</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2">
+        <v>229000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9785346519347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24000</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2">
+        <v>164000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9782778093889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2">
+        <v>162000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9783677244869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2">
+        <v>199000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9784062499259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2">
+        <v>186000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9785330873072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2">
+        <v>29000</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2">
+        <v>199000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9785980496418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2">
+        <v>219000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>9785601796693</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>65000</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2">
+        <v>164000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9783488838201</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21000</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2">
+        <v>163000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9782011150925</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F25" s="2"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>195000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9783928418205</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2">
+        <v>226000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9785806320272</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2">
+        <v>22000</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>64000</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="2">
+        <v>202000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9782338127671</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42000</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2">
+        <v>174000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9781898597543</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>52300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>50300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>90900</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>97400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>51700</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>24900</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>64000</v>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>39000</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="2">
+        <v>160000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>9782102534877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2">
+        <v>202000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9784441150295</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
